--- a/biology/Mycologie/Caloplaca_marina/Caloplaca_marina.xlsx
+++ b/biology/Mycologie/Caloplaca_marina/Caloplaca_marina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lichen de mer orange
 Caloplaca marina, le Lichen de mer orange[réf. nécessaire], est une espèce de lichens crustacés et placodioïdes. Il a une large aire de répartition et peut être trouvé sur les rivages, les rochers ou les murs.
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caloplaca marina se trouve sur la plupart des roches côtières mondiales, allant du type calcaire aux type silicaté (HS). On le trouve typiquement dans la zone mésique supralittorale ou au-dessus de Verrucaria maura (« lichens goudronneux »). Il peut être distingué du C. thallincola par son absence de thalles bien définis[1].
-C. marina tolère les embruns marins et une brève immersion dans l’eau de mer[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caloplaca marina se trouve sur la plupart des roches côtières mondiales, allant du type calcaire aux type silicaté (HS). On le trouve typiquement dans la zone mésique supralittorale ou au-dessus de Verrucaria maura (« lichens goudronneux »). Il peut être distingué du C. thallincola par son absence de thalles bien définis.
+C. marina tolère les embruns marins et une brève immersion dans l’eau de mer.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps végétatif du lichen, le thalle, est de couleur orange ou rouge orangé et peut être continu ou fragmenté. Lorsqu'il est fragmenté, le thalle semble grumeleux sous une loupe ; lorsqu'elle est continue, elle est aréolée et les bords peuvent être mal définies et presque dépourvues de lobes ; il n'est jamais poudreux ou pruineux.
-Un prothalle de couleur claire peut être visible chez les spécimens bien développés[3].
+Un prothalle de couleur claire peut être visible chez les spécimens bien développés.
 Les ascocarpes sont petites et dispersées dans le thalle, ou bien regroupées en petits groupes ; les diamètres sont rarement supérieurs à 0,8 mm.
-La surface du disque orange (une couleur plus foncée que le thalle) est initialement concave mais devient convexe en mûrissant ; le bord de l'ascocarpe se rétrécit également en mûrissant, donnant l'impression que le disque convexe déborde dessus[3].
+La surface du disque orange (une couleur plus foncée que le thalle) est initialement concave mais devient convexe en mûrissant ; le bord de l'ascocarpe se rétrécit également en mûrissant, donnant l'impression que le disque convexe déborde dessus.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Tolérance à la pollution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. marina n'est pas immédiatement affectée par les marées noires et le nettoyage, mais meurt en douze mois. Elle recolonise rapidement les zones d’extinction localement[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. marina n'est pas immédiatement affectée par les marées noires et le nettoyage, mais meurt en douze mois. Elle recolonise rapidement les zones d’extinction localement.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Caloplaca marina Wedd., 1873[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Caloplaca marina Wedd., 1873.
 Les synonymes de Caloplaca marina sont : 
 Caloplaca marina f. flavogranulata, Wedd. (1875)
 Caloplaca marina var. flavogranulata (Wedd.) Zahlbr
@@ -645,9 +665,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Calos » en grec signifie gentil/aimable, « placa » en grec signifie bouclier/plaque. Caloplaca signifie donc « belles plaques »[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Calos » en grec signifie gentil/aimable, « placa » en grec signifie bouclier/plaque. Caloplaca signifie donc « belles plaques ».
 </t>
         </is>
       </c>
